--- a/Documentación/Cronograma de trabajo.xlsx
+++ b/Documentación/Cronograma de trabajo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAB5438-DC7C-44A0-90A5-577830B206A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63DC1A0-ABC0-4953-9E2C-9800B7F4D7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -283,19 +283,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -603,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="122" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,18 +656,18 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -716,10 +715,10 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -741,8 +740,8 @@
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -752,8 +751,8 @@
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -763,8 +762,8 @@
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -777,7 +776,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
@@ -788,7 +787,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
@@ -799,7 +798,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
@@ -810,7 +809,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
@@ -820,10 +819,10 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="12"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
@@ -831,7 +830,7 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -842,24 +841,24 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="1"/>
@@ -867,17 +866,17 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="1"/>
     </row>
   </sheetData>

--- a/Documentación/Cronograma de trabajo.xlsx
+++ b/Documentación/Cronograma de trabajo.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63DC1A0-ABC0-4953-9E2C-9800B7F4D7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00179ED7-26AB-4509-94A1-52E854454C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -295,6 +295,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -600,9 +601,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H26"/>
+  <dimension ref="B1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="122" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -613,25 +614,25 @@
     <col min="3" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:8" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -639,7 +640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -647,7 +648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -655,7 +656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C8" s="11" t="s">
         <v>1</v>
       </c>
@@ -669,7 +670,7 @@
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
@@ -692,7 +693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
@@ -703,7 +704,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
@@ -714,7 +715,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
@@ -725,7 +726,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
@@ -736,7 +737,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
@@ -746,8 +747,9 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
@@ -758,7 +760,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>

--- a/Documentación/Cronograma de trabajo.xlsx
+++ b/Documentación/Cronograma de trabajo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00179ED7-26AB-4509-94A1-52E854454C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF766F0-D17D-468B-B226-4C5F45638104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -289,13 +289,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -604,14 +608,16 @@
   <dimension ref="B1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="B1" sqref="B1:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
@@ -622,10 +628,16 @@
     <row r="2" spans="2:12" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -657,18 +669,18 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -747,7 +759,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="L14" s="13"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -788,8 +800,8 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
@@ -810,8 +822,8 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
@@ -821,8 +833,8 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="1"/>
       <c r="H21" s="9"/>
     </row>
@@ -832,8 +844,8 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
@@ -882,10 +894,11 @@
       <c r="H26" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
